--- a/public/reports/Reporte.xlsx
+++ b/public/reports/Reporte.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Documento N°</t>
   </si>
@@ -37,42 +37,33 @@
     <t>¿Paciente con error?</t>
   </si>
   <si>
-    <t>100742450</t>
+    <t>1007441850</t>
   </si>
   <si>
     <t>CC</t>
   </si>
   <si>
+    <t>2021-10-12</t>
+  </si>
+  <si>
+    <t>2021-11-24 10:20:09</t>
+  </si>
+  <si>
+    <t>Yulian Adolfo</t>
+  </si>
+  <si>
+    <t>Rojas Gañan</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>10074418506434</t>
+  </si>
+  <si>
     <t>2021-11-05</t>
   </si>
   <si>
-    <t>2021-11-25 13:47:44</t>
-  </si>
-  <si>
-    <t>asdlfkj</t>
-  </si>
-  <si>
-    <t>alsdkfj</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>1007441243</t>
-  </si>
-  <si>
-    <t>2021-11-25 13:37:37</t>
-  </si>
-  <si>
-    <t>asdflk</t>
-  </si>
-  <si>
-    <t>asdlkfj</t>
-  </si>
-  <si>
-    <t>10074418506434</t>
-  </si>
-  <si>
     <t>2021-11-25 13:48:44</t>
   </si>
   <si>
@@ -80,45 +71,6 @@
   </si>
   <si>
     <t>lasdkasfj</t>
-  </si>
-  <si>
-    <t>1007441345</t>
-  </si>
-  <si>
-    <t>2021-11-11</t>
-  </si>
-  <si>
-    <t>2021-11-27 19:20:45</t>
-  </si>
-  <si>
-    <t>Yulian Adolfo</t>
-  </si>
-  <si>
-    <t>Rojas Gañan</t>
-  </si>
-  <si>
-    <t>123450</t>
-  </si>
-  <si>
-    <t>2021-11-28 20:18:42</t>
-  </si>
-  <si>
-    <t>kljkj</t>
-  </si>
-  <si>
-    <t>asasdlfkj</t>
-  </si>
-  <si>
-    <t>1234567</t>
-  </si>
-  <si>
-    <t>2021-11-27 19:29:43</t>
-  </si>
-  <si>
-    <t>dflsafkjasklfdaskdlf</t>
-  </si>
-  <si>
-    <t>aldkdjfkslafl</t>
   </si>
 </sst>
 </file>
@@ -531,110 +483,18 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
         <v>13</v>
       </c>
     </row>

--- a/public/reports/Reporte.xlsx
+++ b/public/reports/Reporte.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Documento N°</t>
   </si>
@@ -37,40 +37,55 @@
     <t>¿Paciente con error?</t>
   </si>
   <si>
-    <t>1007441850</t>
+    <t>1053812653</t>
   </si>
   <si>
     <t>CC</t>
   </si>
   <si>
-    <t>2021-10-12</t>
-  </si>
-  <si>
-    <t>2021-11-24 10:20:09</t>
-  </si>
-  <si>
-    <t>Yulian Adolfo</t>
-  </si>
-  <si>
-    <t>Rojas Gañan</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>10074418506434</t>
-  </si>
-  <si>
-    <t>2021-11-05</t>
-  </si>
-  <si>
-    <t>2021-11-25 13:48:44</t>
-  </si>
-  <si>
-    <t>asdflafdkj</t>
-  </si>
-  <si>
-    <t>lasdkasfj</t>
+    <t>2021-12-02</t>
+  </si>
+  <si>
+    <t>2021-12-06 17:02:41</t>
+  </si>
+  <si>
+    <t>Vivian Andrea</t>
+  </si>
+  <si>
+    <t>Torres Ramirez</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>30270413</t>
+  </si>
+  <si>
+    <t>2021-12-05</t>
+  </si>
+  <si>
+    <t>2021-12-05 15:01:25</t>
+  </si>
+  <si>
+    <t>Luz</t>
+  </si>
+  <si>
+    <t>Naddy</t>
+  </si>
+  <si>
+    <t>30329904</t>
+  </si>
+  <si>
+    <t>2021-12-06</t>
+  </si>
+  <si>
+    <t>2021-12-06 13:49:16</t>
+  </si>
+  <si>
+    <t>Alba Patricia</t>
+  </si>
+  <si>
+    <t>Florez Villa</t>
   </si>
 </sst>
 </file>
@@ -498,6 +513,29 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/public/reports/Reporte.xlsx
+++ b/public/reports/Reporte.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Documento N°</t>
   </si>
@@ -37,55 +37,10 @@
     <t>¿Paciente con error?</t>
   </si>
   <si>
-    <t>1053812653</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>2021-12-02</t>
-  </si>
-  <si>
-    <t>2021-12-06 17:02:41</t>
-  </si>
-  <si>
-    <t>Vivian Andrea</t>
-  </si>
-  <si>
-    <t>Torres Ramirez</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>30270413</t>
-  </si>
-  <si>
-    <t>2021-12-05</t>
-  </si>
-  <si>
-    <t>2021-12-05 15:01:25</t>
-  </si>
-  <si>
-    <t>Luz</t>
-  </si>
-  <si>
-    <t>Naddy</t>
-  </si>
-  <si>
-    <t>30329904</t>
-  </si>
-  <si>
-    <t>2021-12-06</t>
-  </si>
-  <si>
-    <t>2021-12-06 13:49:16</t>
-  </si>
-  <si>
-    <t>Alba Patricia</t>
-  </si>
-  <si>
-    <t>Florez Villa</t>
+    <t>51</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -475,65 +430,19 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/public/reports/Reporte.xlsx
+++ b/public/reports/Reporte.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Documento N°</t>
   </si>
@@ -37,7 +37,40 @@
     <t>¿Paciente con error?</t>
   </si>
   <si>
-    <t>51</t>
+    <t>3535342433</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>2021-12-10</t>
+  </si>
+  <si>
+    <t>2021-12-08 12:43:25</t>
+  </si>
+  <si>
+    <t>dfadlfkja</t>
+  </si>
+  <si>
+    <t>aldfkdjfs</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>4234543234543</t>
+  </si>
+  <si>
+    <t>2021-12-08 12:43:36</t>
+  </si>
+  <si>
+    <t>asdflkkasfdj</t>
+  </si>
+  <si>
+    <t>alsdksjfsal</t>
+  </si>
+  <si>
+    <t>57</t>
   </si>
   <si>
     <t/>
@@ -430,19 +463,65 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/public/reports/Reporte.xlsx
+++ b/public/reports/Reporte.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Documento N°</t>
   </si>
@@ -37,40 +37,148 @@
     <t>¿Paciente con error?</t>
   </si>
   <si>
-    <t>3535342433</t>
+    <t>1007441851</t>
   </si>
   <si>
     <t>CC</t>
   </si>
   <si>
-    <t>2021-12-10</t>
-  </si>
-  <si>
-    <t>2021-12-08 12:43:25</t>
-  </si>
-  <si>
-    <t>dfadlfkja</t>
-  </si>
-  <si>
-    <t>aldfkdjfs</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>4234543234543</t>
-  </si>
-  <si>
-    <t>2021-12-08 12:43:36</t>
-  </si>
-  <si>
-    <t>asdflkkasfdj</t>
-  </si>
-  <si>
-    <t>alsdksjfsal</t>
-  </si>
-  <si>
-    <t>57</t>
+    <t>2021-10-12</t>
+  </si>
+  <si>
+    <t>2021-11-24 10:19:18</t>
+  </si>
+  <si>
+    <t>Yulian Adolfo</t>
+  </si>
+  <si>
+    <t>Rojas Gañan</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>1007441850</t>
+  </si>
+  <si>
+    <t>2021-11-24 10:20:09</t>
+  </si>
+  <si>
+    <t>1007441849</t>
+  </si>
+  <si>
+    <t>2021-11-24 10:20:32</t>
+  </si>
+  <si>
+    <t>3178562595</t>
+  </si>
+  <si>
+    <t>2021-11-23</t>
+  </si>
+  <si>
+    <t>2021-11-24 16:54:13</t>
+  </si>
+  <si>
+    <t>1007441243</t>
+  </si>
+  <si>
+    <t>2021-11-05</t>
+  </si>
+  <si>
+    <t>2021-11-25 13:37:37</t>
+  </si>
+  <si>
+    <t>asdflk</t>
+  </si>
+  <si>
+    <t>asdlkfj</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>2021-11-04</t>
+  </si>
+  <si>
+    <t>2021-11-25 13:45:55</t>
+  </si>
+  <si>
+    <t>sdcfvb</t>
+  </si>
+  <si>
+    <t>dfgvbn</t>
+  </si>
+  <si>
+    <t>100742450</t>
+  </si>
+  <si>
+    <t>2021-11-25 13:47:44</t>
+  </si>
+  <si>
+    <t>asdlfkj</t>
+  </si>
+  <si>
+    <t>alsdkfj</t>
+  </si>
+  <si>
+    <t>100724332345</t>
+  </si>
+  <si>
+    <t>2021-11-25 13:48:17</t>
+  </si>
+  <si>
+    <t>asdfasdklfsjdklf</t>
+  </si>
+  <si>
+    <t>asldkasfjkl</t>
+  </si>
+  <si>
+    <t>10074418506434</t>
+  </si>
+  <si>
+    <t>2021-11-25 13:48:44</t>
+  </si>
+  <si>
+    <t>asdflafdkj</t>
+  </si>
+  <si>
+    <t>lasdkasfj</t>
+  </si>
+  <si>
+    <t>1007441345</t>
+  </si>
+  <si>
+    <t>2021-11-11</t>
+  </si>
+  <si>
+    <t>2021-11-27 19:20:45</t>
+  </si>
+  <si>
+    <t>1234567</t>
+  </si>
+  <si>
+    <t>2021-11-27 19:29:43</t>
+  </si>
+  <si>
+    <t>dflsafkjasklfdaskdlf</t>
+  </si>
+  <si>
+    <t>aldkdjfkslafl</t>
+  </si>
+  <si>
+    <t>123450</t>
+  </si>
+  <si>
+    <t>2021-11-28 20:18:42</t>
+  </si>
+  <si>
+    <t>kljkj</t>
+  </si>
+  <si>
+    <t>asasdlfkj</t>
+  </si>
+  <si>
+    <t>59</t>
   </si>
   <si>
     <t/>
@@ -492,10 +600,10 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -503,25 +611,255 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/public/reports/Reporte.xlsx
+++ b/public/reports/Reporte.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="254">
   <si>
     <t>Documento N°</t>
   </si>
@@ -79,6 +79,60 @@
     <t>2021-11-24 16:54:13</t>
   </si>
   <si>
+    <t>3178562590</t>
+  </si>
+  <si>
+    <t>2021-11-24 16:54:49</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>10074414534</t>
+  </si>
+  <si>
+    <t>2021-11-04</t>
+  </si>
+  <si>
+    <t>2021-11-25 12:36:18</t>
+  </si>
+  <si>
+    <t>sldkfj</t>
+  </si>
+  <si>
+    <t>asldkfj</t>
+  </si>
+  <si>
+    <t>1007441855</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>2021-11-25 12:38:04</t>
+  </si>
+  <si>
+    <t>adsf</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>10074418123</t>
+  </si>
+  <si>
+    <t>2021-11-18</t>
+  </si>
+  <si>
+    <t>2021-11-25 13:37:07</t>
+  </si>
+  <si>
+    <t>sadasfk</t>
+  </si>
+  <si>
+    <t>laksdfj</t>
+  </si>
+  <si>
     <t>1007441243</t>
   </si>
   <si>
@@ -94,12 +148,21 @@
     <t>asdlkfj</t>
   </si>
   <si>
+    <t>100744182</t>
+  </si>
+  <si>
+    <t>2021-11-25 13:45:02</t>
+  </si>
+  <si>
+    <t>asdfk</t>
+  </si>
+  <si>
+    <t>lakdfj</t>
+  </si>
+  <si>
     <t>123456789</t>
   </si>
   <si>
-    <t>2021-11-04</t>
-  </si>
-  <si>
     <t>2021-11-25 13:45:55</t>
   </si>
   <si>
@@ -109,6 +172,18 @@
     <t>dfgvbn</t>
   </si>
   <si>
+    <t>242535344</t>
+  </si>
+  <si>
+    <t>2021-11-25 13:46:56</t>
+  </si>
+  <si>
+    <t>adfadslkfj</t>
+  </si>
+  <si>
+    <t>asdlfkajf</t>
+  </si>
+  <si>
     <t>100742450</t>
   </si>
   <si>
@@ -145,12 +220,105 @@
     <t>lasdkasfj</t>
   </si>
   <si>
+    <t>104341850</t>
+  </si>
+  <si>
+    <t>2021-11-10</t>
+  </si>
+  <si>
+    <t>2021-11-25 13:49:52</t>
+  </si>
+  <si>
+    <t>SDFslksdfj</t>
+  </si>
+  <si>
+    <t>alskjdfs</t>
+  </si>
+  <si>
+    <t>75546454345</t>
+  </si>
+  <si>
+    <t>2021-11-09</t>
+  </si>
+  <si>
+    <t>2021-11-25 13:50:30</t>
+  </si>
+  <si>
+    <t>alsfkasdjfkl</t>
+  </si>
+  <si>
+    <t>asdsafjdlk</t>
+  </si>
+  <si>
+    <t>454045932</t>
+  </si>
+  <si>
+    <t>2021-11-16</t>
+  </si>
+  <si>
+    <t>2021-11-25 13:55:48</t>
+  </si>
+  <si>
+    <t>asldkfdj</t>
+  </si>
+  <si>
+    <t>123456754454454</t>
+  </si>
+  <si>
+    <t>2021-11-12</t>
+  </si>
+  <si>
+    <t>2021-11-26 12:11:57</t>
+  </si>
+  <si>
+    <t>aselkdfjadsfklj</t>
+  </si>
+  <si>
+    <t>asdlkfjdfkl</t>
+  </si>
+  <si>
+    <t>30413847</t>
+  </si>
+  <si>
+    <t>2021-11-27 19:17:36</t>
+  </si>
+  <si>
+    <t>aldfkjasdfklsdfl</t>
+  </si>
+  <si>
+    <t>aldsksafdjkl</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>2021-11-11</t>
+  </si>
+  <si>
+    <t>2021-11-27 19:19:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paciente </t>
+  </si>
+  <si>
+    <t>Universidad Nacional</t>
+  </si>
+  <si>
+    <t>12332123</t>
+  </si>
+  <si>
+    <t>2021-11-27 19:20:15</t>
+  </si>
+  <si>
+    <t>sdflksadfj</t>
+  </si>
+  <si>
+    <t>lasdkfasdfjk</t>
+  </si>
+  <si>
     <t>1007441345</t>
   </si>
   <si>
-    <t>2021-11-11</t>
-  </si>
-  <si>
     <t>2021-11-27 19:20:45</t>
   </si>
   <si>
@@ -166,6 +334,54 @@
     <t>aldkdjfkslafl</t>
   </si>
   <si>
+    <t>10075535242454</t>
+  </si>
+  <si>
+    <t>2021-11-27 19:32:52</t>
+  </si>
+  <si>
+    <t>345tygtf</t>
+  </si>
+  <si>
+    <t>dertyhy5</t>
+  </si>
+  <si>
+    <t>123453</t>
+  </si>
+  <si>
+    <t>2021-11-27 19:33:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consulta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prioritaria </t>
+  </si>
+  <si>
+    <t>30270813</t>
+  </si>
+  <si>
+    <t>2021-11-28 20:17:57</t>
+  </si>
+  <si>
+    <t>Clara Eugenia</t>
+  </si>
+  <si>
+    <t>Acevedo Vallejo</t>
+  </si>
+  <si>
+    <t>1234568</t>
+  </si>
+  <si>
+    <t>2021-11-28 20:18:10</t>
+  </si>
+  <si>
+    <t>drftghn</t>
+  </si>
+  <si>
+    <t>dfvb</t>
+  </si>
+  <si>
     <t>123450</t>
   </si>
   <si>
@@ -178,7 +394,385 @@
     <t>asasdlfkj</t>
   </si>
   <si>
-    <t>59</t>
+    <t>123454321</t>
+  </si>
+  <si>
+    <t>2021-11-17</t>
+  </si>
+  <si>
+    <t>2021-11-28 20:43:18</t>
+  </si>
+  <si>
+    <t>rgthttref</t>
+  </si>
+  <si>
+    <t>dfgdf</t>
+  </si>
+  <si>
+    <t>3333432343432</t>
+  </si>
+  <si>
+    <t>2021-12-08</t>
+  </si>
+  <si>
+    <t>2021-12-02 17:47:52</t>
+  </si>
+  <si>
+    <t>dsfkdfjasdklfasdjlfads</t>
+  </si>
+  <si>
+    <t>SLFKDSJSALKD</t>
+  </si>
+  <si>
+    <t>5545544354</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>2021-12-02 17:49:51</t>
+  </si>
+  <si>
+    <t>pedro peerez</t>
+  </si>
+  <si>
+    <t>adsflkadsjsfklsdf</t>
+  </si>
+  <si>
+    <t>1053781020</t>
+  </si>
+  <si>
+    <t>2021-12-30</t>
+  </si>
+  <si>
+    <t>2021-12-02 17:57:26</t>
+  </si>
+  <si>
+    <t>Claudia Milena</t>
+  </si>
+  <si>
+    <t>Arias Correa</t>
+  </si>
+  <si>
+    <t>38234704</t>
+  </si>
+  <si>
+    <t>2021-12-02 17:59:03</t>
+  </si>
+  <si>
+    <t>Martha Ines</t>
+  </si>
+  <si>
+    <t>Marulanda Manchola</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2021-12-02 18:00:25</t>
+  </si>
+  <si>
+    <t>1053791041</t>
+  </si>
+  <si>
+    <t>2021-12-02 18:03:23</t>
+  </si>
+  <si>
+    <t>Katherine</t>
+  </si>
+  <si>
+    <t>Ochoa Sanint</t>
+  </si>
+  <si>
+    <t>10236799</t>
+  </si>
+  <si>
+    <t>2021-12-29</t>
+  </si>
+  <si>
+    <t>2021-12-02 18:05:24</t>
+  </si>
+  <si>
+    <t>Danilo Antonio</t>
+  </si>
+  <si>
+    <t>Arias Ocampo</t>
+  </si>
+  <si>
+    <t>30294594</t>
+  </si>
+  <si>
+    <t>2021-12-02 18:05:54</t>
+  </si>
+  <si>
+    <t>Maria Consuelo</t>
+  </si>
+  <si>
+    <t>Arias Moreno</t>
+  </si>
+  <si>
+    <t>1087203650</t>
+  </si>
+  <si>
+    <t>2021-12-02 18:06:06</t>
+  </si>
+  <si>
+    <t>Edwin Antonio</t>
+  </si>
+  <si>
+    <t>Quiñones Sanchez</t>
+  </si>
+  <si>
+    <t>15909990</t>
+  </si>
+  <si>
+    <t>2021-12-02 18:06:31</t>
+  </si>
+  <si>
+    <t>Jorge Eliecer</t>
+  </si>
+  <si>
+    <t>Aguirre Marin</t>
+  </si>
+  <si>
+    <t>1077867648</t>
+  </si>
+  <si>
+    <t>2021-12-02 18:11:17</t>
+  </si>
+  <si>
+    <t>Yodman</t>
+  </si>
+  <si>
+    <t>Santos Bonilla</t>
+  </si>
+  <si>
+    <t>30270413</t>
+  </si>
+  <si>
+    <t>2021-12-05</t>
+  </si>
+  <si>
+    <t>2021-12-05 15:01:25</t>
+  </si>
+  <si>
+    <t>Luz</t>
+  </si>
+  <si>
+    <t>Naddy</t>
+  </si>
+  <si>
+    <t>30329904</t>
+  </si>
+  <si>
+    <t>2021-12-06</t>
+  </si>
+  <si>
+    <t>2021-12-06 13:49:16</t>
+  </si>
+  <si>
+    <t>Alba Patricia</t>
+  </si>
+  <si>
+    <t>Florez Villa</t>
+  </si>
+  <si>
+    <t>1054881505</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>2021-12-01</t>
+  </si>
+  <si>
+    <t>2021-12-06 17:00:47</t>
+  </si>
+  <si>
+    <t>Maria Del mar</t>
+  </si>
+  <si>
+    <t>Monroy Rendon</t>
+  </si>
+  <si>
+    <t>1053803157</t>
+  </si>
+  <si>
+    <t>2021-12-06 17:01:42</t>
+  </si>
+  <si>
+    <t>Manuela Maria</t>
+  </si>
+  <si>
+    <t>Ramirez Marin</t>
+  </si>
+  <si>
+    <t>1053812653</t>
+  </si>
+  <si>
+    <t>2021-12-02</t>
+  </si>
+  <si>
+    <t>2021-12-06 17:02:41</t>
+  </si>
+  <si>
+    <t>Vivian Andrea</t>
+  </si>
+  <si>
+    <t>Torres Ramirez</t>
+  </si>
+  <si>
+    <t>10256129</t>
+  </si>
+  <si>
+    <t>2021-12-24</t>
+  </si>
+  <si>
+    <t>2021-12-07 11:24:16</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>Jozame Amar</t>
+  </si>
+  <si>
+    <t>1034283022</t>
+  </si>
+  <si>
+    <t>2021-12-07</t>
+  </si>
+  <si>
+    <t>2021-12-07 11:31:43</t>
+  </si>
+  <si>
+    <t>Katherynne Nathaly</t>
+  </si>
+  <si>
+    <t>Parra Rojas</t>
+  </si>
+  <si>
+    <t>1002542925</t>
+  </si>
+  <si>
+    <t>2021-12-07 11:41:13</t>
+  </si>
+  <si>
+    <t>Andres Felipe</t>
+  </si>
+  <si>
+    <t>Hoyos Ramirez</t>
+  </si>
+  <si>
+    <t>543212345234</t>
+  </si>
+  <si>
+    <t>2021-12-07 20:15:12</t>
+  </si>
+  <si>
+    <t>dfrgtrgfb</t>
+  </si>
+  <si>
+    <t>dvfbgnhhgrfbv</t>
+  </si>
+  <si>
+    <t>2425363524242</t>
+  </si>
+  <si>
+    <t>2021-12-07 20:20:52</t>
+  </si>
+  <si>
+    <t>sdfghgf</t>
+  </si>
+  <si>
+    <t>cvbnb</t>
+  </si>
+  <si>
+    <t>34332004340230</t>
+  </si>
+  <si>
+    <t>2021-12-07 23:05:56</t>
+  </si>
+  <si>
+    <t>ldsfjadflakdfalkdsf</t>
+  </si>
+  <si>
+    <t>asdlkadsjffkl</t>
+  </si>
+  <si>
+    <t>63343453434020</t>
+  </si>
+  <si>
+    <t>2021-12-07 23:06:10</t>
+  </si>
+  <si>
+    <t>adf-adf-adfasd-ca</t>
+  </si>
+  <si>
+    <t>dfadsfads.fa-rq-eafsd</t>
+  </si>
+  <si>
+    <t>5443452430445</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>2021-12-07 23:17:51</t>
+  </si>
+  <si>
+    <t>adaflaksdfjl</t>
+  </si>
+  <si>
+    <t>3456543456543</t>
+  </si>
+  <si>
+    <t>2021-12-07 23:18:01</t>
+  </si>
+  <si>
+    <t>alkdfj</t>
+  </si>
+  <si>
+    <t>3535342433</t>
+  </si>
+  <si>
+    <t>2021-12-10</t>
+  </si>
+  <si>
+    <t>2021-12-08 12:43:25</t>
+  </si>
+  <si>
+    <t>dfadlfkja</t>
+  </si>
+  <si>
+    <t>aldfkdjfs</t>
+  </si>
+  <si>
+    <t>4234543234543</t>
+  </si>
+  <si>
+    <t>2021-12-08 12:43:36</t>
+  </si>
+  <si>
+    <t>asdflkkasfdj</t>
+  </si>
+  <si>
+    <t>alsdksjfsal</t>
+  </si>
+  <si>
+    <t>345654322345654</t>
+  </si>
+  <si>
+    <t>2021-12-08 12:53:25</t>
+  </si>
+  <si>
+    <t>sfsdfgfds</t>
+  </si>
+  <si>
+    <t>ffgfd</t>
+  </si>
+  <si>
+    <t>61</t>
   </si>
   <si>
     <t/>
@@ -663,76 +1257,76 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>33</v>
       </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
         <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
@@ -744,7 +1338,7 @@
         <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
@@ -755,16 +1349,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
@@ -772,45 +1366,45 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -818,48 +1412,1106 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" t="s">
+        <v>145</v>
+      </c>
+      <c r="G34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" t="s">
+        <v>149</v>
+      </c>
+      <c r="G35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" t="s">
+        <v>148</v>
+      </c>
+      <c r="F36" t="s">
+        <v>149</v>
+      </c>
+      <c r="G36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" t="s">
+        <v>153</v>
+      </c>
+      <c r="E37" t="s">
+        <v>154</v>
+      </c>
+      <c r="F37" t="s">
+        <v>155</v>
+      </c>
+      <c r="G37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>156</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" t="s">
+        <v>159</v>
+      </c>
+      <c r="F38" t="s">
+        <v>160</v>
+      </c>
+      <c r="G38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39" t="s">
+        <v>164</v>
+      </c>
+      <c r="G39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" t="s">
+        <v>166</v>
+      </c>
+      <c r="E40" t="s">
+        <v>167</v>
+      </c>
+      <c r="F40" t="s">
+        <v>168</v>
+      </c>
+      <c r="G40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" t="s">
+        <v>171</v>
+      </c>
+      <c r="F41" t="s">
+        <v>172</v>
+      </c>
+      <c r="G41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>173</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>157</v>
+      </c>
+      <c r="D42" t="s">
+        <v>174</v>
+      </c>
+      <c r="E42" t="s">
+        <v>175</v>
+      </c>
+      <c r="F42" t="s">
+        <v>176</v>
+      </c>
+      <c r="G42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>178</v>
+      </c>
+      <c r="D43" t="s">
+        <v>179</v>
+      </c>
+      <c r="E43" t="s">
+        <v>180</v>
+      </c>
+      <c r="F43" t="s">
+        <v>181</v>
+      </c>
+      <c r="G43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>182</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>183</v>
+      </c>
+      <c r="D44" t="s">
+        <v>184</v>
+      </c>
+      <c r="E44" t="s">
+        <v>185</v>
+      </c>
+      <c r="F44" t="s">
+        <v>186</v>
+      </c>
+      <c r="G44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>187</v>
+      </c>
+      <c r="B45" t="s">
+        <v>188</v>
+      </c>
+      <c r="C45" t="s">
+        <v>189</v>
+      </c>
+      <c r="D45" t="s">
+        <v>190</v>
+      </c>
+      <c r="E45" t="s">
+        <v>191</v>
+      </c>
+      <c r="F45" t="s">
+        <v>192</v>
+      </c>
+      <c r="G45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>193</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D46" t="s">
+        <v>194</v>
+      </c>
+      <c r="E46" t="s">
+        <v>195</v>
+      </c>
+      <c r="F46" t="s">
+        <v>196</v>
+      </c>
+      <c r="G46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>197</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>198</v>
+      </c>
+      <c r="D47" t="s">
+        <v>199</v>
+      </c>
+      <c r="E47" t="s">
+        <v>200</v>
+      </c>
+      <c r="F47" t="s">
+        <v>201</v>
+      </c>
+      <c r="G47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>203</v>
+      </c>
+      <c r="D48" t="s">
+        <v>204</v>
+      </c>
+      <c r="E48" t="s">
+        <v>205</v>
+      </c>
+      <c r="F48" t="s">
+        <v>206</v>
+      </c>
+      <c r="G48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>207</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>208</v>
+      </c>
+      <c r="D49" t="s">
+        <v>209</v>
+      </c>
+      <c r="E49" t="s">
+        <v>210</v>
+      </c>
+      <c r="F49" t="s">
+        <v>211</v>
+      </c>
+      <c r="G49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>212</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>183</v>
+      </c>
+      <c r="D50" t="s">
+        <v>213</v>
+      </c>
+      <c r="E50" t="s">
+        <v>214</v>
+      </c>
+      <c r="F50" t="s">
+        <v>215</v>
+      </c>
+      <c r="G50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>216</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" t="s">
+        <v>217</v>
+      </c>
+      <c r="E51" t="s">
+        <v>218</v>
+      </c>
+      <c r="F51" t="s">
+        <v>219</v>
+      </c>
+      <c r="G51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>220</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>198</v>
+      </c>
+      <c r="D52" t="s">
+        <v>221</v>
+      </c>
+      <c r="E52" t="s">
+        <v>222</v>
+      </c>
+      <c r="F52" t="s">
+        <v>223</v>
+      </c>
+      <c r="G52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>224</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>208</v>
+      </c>
+      <c r="D53" t="s">
+        <v>225</v>
+      </c>
+      <c r="E53" t="s">
+        <v>226</v>
+      </c>
+      <c r="F53" t="s">
+        <v>227</v>
+      </c>
+      <c r="G53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>228</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>208</v>
+      </c>
+      <c r="D54" t="s">
+        <v>229</v>
+      </c>
+      <c r="E54" t="s">
+        <v>230</v>
+      </c>
+      <c r="F54" t="s">
+        <v>231</v>
+      </c>
+      <c r="G54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>232</v>
+      </c>
+      <c r="B55" t="s">
+        <v>233</v>
+      </c>
+      <c r="C55" t="s">
+        <v>208</v>
+      </c>
+      <c r="D55" t="s">
+        <v>234</v>
+      </c>
+      <c r="E55" t="s">
+        <v>235</v>
+      </c>
+      <c r="F55" t="s">
+        <v>59</v>
+      </c>
+      <c r="G55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>236</v>
+      </c>
+      <c r="B56" t="s">
+        <v>233</v>
+      </c>
+      <c r="C56" t="s">
+        <v>208</v>
+      </c>
+      <c r="D56" t="s">
+        <v>237</v>
+      </c>
+      <c r="E56" t="s">
+        <v>58</v>
+      </c>
+      <c r="F56" t="s">
+        <v>238</v>
+      </c>
+      <c r="G56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>239</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>240</v>
+      </c>
+      <c r="D57" t="s">
+        <v>241</v>
+      </c>
+      <c r="E57" t="s">
+        <v>242</v>
+      </c>
+      <c r="F57" t="s">
+        <v>243</v>
+      </c>
+      <c r="G57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>244</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>240</v>
+      </c>
+      <c r="D58" t="s">
+        <v>245</v>
+      </c>
+      <c r="E58" t="s">
+        <v>246</v>
+      </c>
+      <c r="F58" t="s">
+        <v>247</v>
+      </c>
+      <c r="G58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>248</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>189</v>
+      </c>
+      <c r="D59" t="s">
+        <v>249</v>
+      </c>
+      <c r="E59" t="s">
+        <v>250</v>
+      </c>
+      <c r="F59" t="s">
+        <v>251</v>
+      </c>
+      <c r="G59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>252</v>
+      </c>
+      <c r="B60" t="s">
+        <v>253</v>
+      </c>
+      <c r="C60" t="s">
+        <v>253</v>
+      </c>
+      <c r="D60" t="s">
+        <v>253</v>
+      </c>
+      <c r="E60" t="s">
+        <v>253</v>
+      </c>
+      <c r="F60" t="s">
+        <v>253</v>
+      </c>
+      <c r="G60" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
